--- a/datafileoutput.xlsx
+++ b/datafileoutput.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
         <bgColor rgb="000000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+        <bgColor rgb="00CCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -94,6 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,32 +497,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>94</v>
       </c>
     </row>
@@ -530,12 +537,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" t="n">
         <v>90</v>
       </c>
     </row>
@@ -741,7 +748,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
